--- a/importationFileUpload/amine.xlsx
+++ b/importationFileUpload/amine.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moknial01\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Francais" sheetId="5" r:id="rId1"/>
@@ -13,9 +18,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Francais!$D$1:$AE$8</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -2927,7 +2932,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
@@ -3499,13 +3504,13 @@
   <cellStyles count="13">
     <cellStyle name="Currency" xfId="6"/>
     <cellStyle name="Currency 2" xfId="10"/>
-    <cellStyle name="NiveauLigne_4" xfId="1" builtinId="1" iLevel="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="7"/>
     <cellStyle name="Normal 2 2" xfId="8"/>
     <cellStyle name="Normal 2 3" xfId="2"/>
     <cellStyle name="Normal 2 4" xfId="11"/>
     <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="RowLevel_4" xfId="1" builtinId="1" iLevel="3"/>
     <cellStyle name="Style 1" xfId="3"/>
     <cellStyle name="Style 2" xfId="9"/>
     <cellStyle name="Style 2 2" xfId="12"/>
@@ -3779,22 +3784,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B211" sqref="B211"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -21772,24 +21777,21 @@
     </row>
     <row r="273" ht="15.75" thickTop="1"/>
   </sheetData>
-  <autoFilter ref="D1:AE8">
-    <filterColumn colId="4"/>
-    <filterColumn colId="15"/>
-  </autoFilter>
+  <autoFilter ref="D1:AE8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="29.28515625" customWidth="1"/>
